--- a/story/Main Story and Others 主线剧情等/guide 导航文字/bd/control_intro.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/bd/control_intro.xlsx
@@ -82,7 +82,7 @@
     <t>[PopupDialog(dialogHead="$avatar_closure")] 大体はこんなもんかな。もし分からないことがあったらヘルプを見直してみてね！</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] This is the &lt;@tu.kw&gt;Base Control Center&lt;/&gt;. Other than my own dark little room, this place is probably the Base’s most crucial component.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] This is the &lt;@tu.kw&gt;Base Control Center&lt;/&gt;. Other than my own dark little room, this place is probably the Base's most crucial component.
 </t>
   </si>
   <si>
